--- a/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,85</t>
+          <t>-4,94; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 2,72</t>
+          <t>-24,36; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,95</t>
+          <t>-5,02; 1,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 3,44</t>
+          <t>-28,66; 2,56</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,73</t>
+          <t>-0,76; 3,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,62; -9,25</t>
+          <t>-33,02; -8,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,91</t>
+          <t>-0,77; 3,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,94; -11,51</t>
+          <t>-38,84; -11,08</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,53</t>
+          <t>-5,58; -0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -7,18</t>
+          <t>-20,38; -7,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,54</t>
+          <t>-5,58; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -9,17</t>
+          <t>-24,27; -9,61</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -1,04</t>
+          <t>-6,41; -1,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 16,45</t>
+          <t>-18,55; 20,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -1,05</t>
+          <t>-6,42; -1,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 30,25</t>
+          <t>-21,41; 37,84</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,4</t>
+          <t>-5,51; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -4,16</t>
+          <t>-17,3; -4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,4</t>
+          <t>-5,53; 0,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -4,9</t>
+          <t>-20,28; -5,76</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,9</t>
+          <t>-6,9; 1,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 7,98</t>
+          <t>-21,03; 9,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,91</t>
+          <t>-7,01; 1,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 9,6</t>
+          <t>-24,3; 11,14</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-2,69; -0,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -1,3</t>
+          <t>-16,16; -1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-2,72; -0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,63</t>
+          <t>-19,52; -2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,85</t>
+          <t>-5,01; 1,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,92</t>
+          <t>-5,07; 2,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,67</t>
+          <t>-0,95; 3,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,81</t>
+          <t>-0,96; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -0,54</t>
+          <t>-5,5; -0,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -0,54</t>
+          <t>-5,54; -0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -1,21</t>
+          <t>-6,05; -1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -1,23</t>
+          <t>-6,07; -1,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 0,4</t>
+          <t>-5,38; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,4</t>
+          <t>-5,38; 0,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,1</t>
+          <t>-6,58; 1,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 1,1</t>
+          <t>-6,65; 1,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; -0,38</t>
+          <t>-2,74; -0,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,39</t>
+          <t>-2,78; -0,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">

--- a/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,96</t>
+          <t>-4,99; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 2,17</t>
+          <t>-24,31; 2,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,04</t>
+          <t>-5,07; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 2,56</t>
+          <t>-28,7; 3,44</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,58</t>
+          <t>-0,77; 3,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,02; -8,63</t>
+          <t>-33,62; -9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,73</t>
+          <t>-0,77; 3,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; -11,08</t>
+          <t>-38,94; -11,51</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,29</t>
+          <t>-5,7; -0,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,38; -7,6</t>
+          <t>-21,1; -7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,29</t>
+          <t>-5,73; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; -9,61</t>
+          <t>-25,24; -9,17</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -1,11</t>
+          <t>-6,42; -1,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 20,16</t>
+          <t>-19,1; 16,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -1,11</t>
+          <t>-6,43; -1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 37,84</t>
+          <t>-21,8; 30,25</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,4</t>
+          <t>-5,33; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -4,49</t>
+          <t>-17,01; -4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,4</t>
+          <t>-5,34; 0,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,28; -5,76</t>
+          <t>-20,34; -4,9</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,05</t>
+          <t>-6,87; 0,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 9,33</t>
+          <t>-21,24; 7,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,06</t>
+          <t>-6,95; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 11,14</t>
+          <t>-24,73; 9,6</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,53</t>
+          <t>-2,74; -0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,56</t>
+          <t>-15,86; -1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,55</t>
+          <t>-2,77; -0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -2,12</t>
+          <t>-19,04; -1,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-15,43%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 2,72</t>
+          <t>-26,49; 1,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 3,44</t>
+          <t>-30,86; 2,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,61</t>
+          <t>-32,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,33%</t>
+          <t>-38,06%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,62; -9,25</t>
+          <t>-64,89; -11,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,94; -11,51</t>
+          <t>-74,75; -13,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-17,48%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -7,18</t>
+          <t>-21,1; -7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -9,17</t>
+          <t>-25,26; -9,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,28</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>30,53%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 16,45</t>
+          <t>-18,54; 49,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,14 +804,14 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 30,25</t>
+          <t>-21,12; 243,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-12,99%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -4,16</t>
+          <t>-16,7; -3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -4,9</t>
+          <t>-19,94; -4,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,9</t>
+          <t>-6,61; 1,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 7,98</t>
+          <t>-19,61; 11,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,91</t>
+          <t>-6,64; 1,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 9,6</t>
+          <t>-22,03; 13,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-23,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-28,56%</t>
         </is>
       </c>
     </row>
@@ -969,34 +969,94 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-18,27; 1,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; -12,11</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 1,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-41,7; -15,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-2,74; -0,44</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-15,86; -1,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 19,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-2,77; -0,44</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; -1,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 36,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1006,6 +1066,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Edad-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-17,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-19,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-10,28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-32,61%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-33,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-29,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-24,19%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,85</t>
+          <t>-23,19; -10,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 1,5</t>
+          <t>-25,84; -12,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,95</t>
+          <t>-24,49; -11,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 2,06</t>
+          <t>-21,78; 0,22</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-41,08; -20,76</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-42,32; -22,51</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-39,23; -19,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; 0,69</t>
         </is>
       </c>
     </row>
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-32,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,08</t>
+          <t>-32,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-20,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,06%</t>
+          <t>-26,48</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-49,63%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-51,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-34,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-48,73%</t>
         </is>
       </c>
     </row>
@@ -669,22 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,73</t>
+          <t>-37,62; -27,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,89; -11,34</t>
+          <t>-37,87; -27,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,91</t>
+          <t>-26,35; -14,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,75; -13,62</t>
+          <t>-38,65; -17,39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-56,0; -42,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-57,62; -44,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; -26,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-67,58; -35,57</t>
         </is>
       </c>
     </row>
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-29,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>-30,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-27,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>-24,75</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-49,52%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-51,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-43,08%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-47,03%</t>
         </is>
       </c>
     </row>
@@ -729,22 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,53</t>
+          <t>-35,14; -24,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -7,69</t>
+          <t>-35,79; -24,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,54</t>
+          <t>-32,59; -21,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,26; -9,71</t>
+          <t>-30,43; -19,33</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; -42,48</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-58,13; -43,23</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-49,81; -35,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-54,1; -39,26</t>
         </is>
       </c>
     </row>
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-32,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>-29,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-20,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>-11,95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-56,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-48,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-35,07%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-30,66%</t>
         </is>
       </c>
     </row>
@@ -789,22 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -1,04</t>
+          <t>-38,65; -26,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 49,25</t>
+          <t>-35,74; -23,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -1,05</t>
+          <t>-26,07; -14,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 243,99</t>
+          <t>-28,21; 10,24</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-63,68; -48,51</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-56,5; -41,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-42,43; -25,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-52,03; 57,16</t>
         </is>
       </c>
     </row>
@@ -821,22 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-27,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>-28,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-33,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>-22,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-61,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-57,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-57,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-47,64%</t>
         </is>
       </c>
     </row>
@@ -849,22 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,4</t>
+          <t>-33,53; -20,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,7; -3,8</t>
+          <t>-35,89; -22,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,4</t>
+          <t>-39,51; -26,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -4,97</t>
+          <t>-27,25; -17,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-70,53; -50,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-66,28; -46,59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-64,51; -48,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-54,43; -39,75</t>
         </is>
       </c>
     </row>
@@ -881,22 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-34,72</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-34,35</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-33,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-81,43%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-73,15%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-66,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
         </is>
       </c>
     </row>
@@ -909,22 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,69</t>
+          <t>-40,57; -28,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 11,71</t>
+          <t>-41,04; -26,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,72</t>
+          <t>-40,28; -27,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 13,96</t>
+          <t>-34,53; 24,84</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-87,4; -72,99</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-80,92; -63,94</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,3; -56,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-65,93; 51,29</t>
         </is>
       </c>
     </row>
@@ -941,22 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-28,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,37</t>
+          <t>-27,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>-27,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-28,56%</t>
+          <t>-28,81</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-86,15%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-84,22%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-78,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-81,66%</t>
         </is>
       </c>
     </row>
@@ -969,22 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 1,71</t>
+          <t>-36,44; -22,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-34,93; -12,11</t>
+          <t>-34,04; -20,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 1,74</t>
+          <t>-33,9; -21,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,7; -15,2</t>
+          <t>-33,74; -24,04</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-92,63; -76,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-90,52; -74,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-85,8; -65,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-86,49; -75,78</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-30,45</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-26,39</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-17,61</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-55,38%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-54,26%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-46,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-38,49%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-32,71; -28,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 19,81</t>
+          <t>-32,76; -27,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-28,68; -23,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 36,07</t>
+          <t>-24,43; -1,38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; -52,46</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-57,11; -50,79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-49,13; -42,69</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-50,25; -2,74</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1417,12 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
